--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Epha7</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H2">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I2">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J2">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03932533333333333</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N2">
-        <v>0.117976</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O2">
-        <v>0.03588667238536742</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P2">
-        <v>0.03588667238536743</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q2">
-        <v>0.7209114076782221</v>
+        <v>5.409187329323556</v>
       </c>
       <c r="R2">
-        <v>6.488202669104</v>
+        <v>48.682685963912</v>
       </c>
       <c r="S2">
-        <v>0.03169466095901527</v>
+        <v>0.197559630183783</v>
       </c>
       <c r="T2">
-        <v>0.03169466095901527</v>
+        <v>0.197559630183783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H3">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I3">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J3">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +626,22 @@
         <v>0.727233</v>
       </c>
       <c r="O3">
-        <v>0.2212142505155957</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P3">
-        <v>0.2212142505155957</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q3">
-        <v>4.443874735031334</v>
+        <v>5.148395278797333</v>
       </c>
       <c r="R3">
-        <v>39.994872615282</v>
+        <v>46.335557509176</v>
       </c>
       <c r="S3">
-        <v>0.1953736639079775</v>
+        <v>0.188034727842626</v>
       </c>
       <c r="T3">
-        <v>0.1953736639079775</v>
+        <v>0.1880347278426259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H4">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I4">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J4">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.743817</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N4">
-        <v>2.231451</v>
+        <v>0.039967</v>
       </c>
       <c r="O4">
-        <v>0.6787766238980854</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P4">
-        <v>0.6787766238980855</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q4">
-        <v>13.635641838806</v>
+        <v>0.2829435876915556</v>
       </c>
       <c r="R4">
-        <v>122.720776549254</v>
+        <v>2.546492289224</v>
       </c>
       <c r="S4">
-        <v>0.5994870388185358</v>
+        <v>0.01033394244717475</v>
       </c>
       <c r="T4">
-        <v>0.5994870388185358</v>
+        <v>0.01033394244717474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H5">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I5">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J5">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07026666666666666</v>
+        <v>0.5706163333333333</v>
       </c>
       <c r="N5">
-        <v>0.2108</v>
+        <v>1.711849</v>
       </c>
       <c r="O5">
-        <v>0.06412245320095149</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="P5">
-        <v>0.06412245320095149</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="Q5">
-        <v>1.288127455911111</v>
+        <v>12.11891554648089</v>
       </c>
       <c r="R5">
-        <v>11.5931471032</v>
+        <v>109.070239918328</v>
       </c>
       <c r="S5">
-        <v>0.05663215001492184</v>
+        <v>0.4426188866878585</v>
       </c>
       <c r="T5">
-        <v>0.05663215001492183</v>
+        <v>0.4426188866878584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.394651</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H6">
-        <v>4.183953000000001</v>
+        <v>63.714872</v>
       </c>
       <c r="I6">
-        <v>0.06719067092662021</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J6">
-        <v>0.06719067092662019</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.03932533333333333</v>
+        <v>0.08468566666666666</v>
       </c>
       <c r="N6">
-        <v>0.117976</v>
+        <v>0.254057</v>
       </c>
       <c r="O6">
-        <v>0.03588667238536742</v>
+        <v>0.07264630872272121</v>
       </c>
       <c r="P6">
-        <v>0.03588667238536743</v>
+        <v>0.0726463087227212</v>
       </c>
       <c r="Q6">
-        <v>0.05484511545866667</v>
+        <v>1.798578803967111</v>
       </c>
       <c r="R6">
-        <v>0.4936060391280001</v>
+        <v>16.187209235704</v>
       </c>
       <c r="S6">
-        <v>0.002411249594896651</v>
+        <v>0.06568945420726785</v>
       </c>
       <c r="T6">
-        <v>0.002411249594896651</v>
+        <v>0.06568945420726784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +856,40 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I7">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J7">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.242411</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N7">
-        <v>0.727233</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O7">
-        <v>0.2212142505155957</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P7">
-        <v>0.2212142505155957</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q7">
-        <v>0.3380787435610001</v>
+        <v>0.3552041280736667</v>
       </c>
       <c r="R7">
-        <v>3.042708692049001</v>
+        <v>3.196837152663001</v>
       </c>
       <c r="S7">
-        <v>0.01486353391067231</v>
+        <v>0.01297311257858808</v>
       </c>
       <c r="T7">
-        <v>0.01486353391067231</v>
+        <v>0.01297311257858808</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I8">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J8">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.743817</v>
+        <v>0.242411</v>
       </c>
       <c r="N8">
-        <v>2.231451</v>
+        <v>0.727233</v>
       </c>
       <c r="O8">
-        <v>0.6787766238980854</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P8">
-        <v>0.6787766238980855</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q8">
-        <v>1.037365122867</v>
+        <v>0.3380787435610001</v>
       </c>
       <c r="R8">
-        <v>9.336286105803001</v>
+        <v>3.042708692049001</v>
       </c>
       <c r="S8">
-        <v>0.0456074567690185</v>
+        <v>0.0123476425356601</v>
       </c>
       <c r="T8">
-        <v>0.0456074567690185</v>
+        <v>0.0123476425356601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +980,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I9">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J9">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,43 +992,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07026666666666666</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N9">
-        <v>0.2108</v>
+        <v>0.039967</v>
       </c>
       <c r="O9">
-        <v>0.06412245320095149</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P9">
-        <v>0.06412245320095149</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q9">
-        <v>0.09799747693333334</v>
+        <v>0.01858000550566667</v>
       </c>
       <c r="R9">
-        <v>0.8819772924000001</v>
+        <v>0.167220049551</v>
       </c>
       <c r="S9">
-        <v>0.004308430652032736</v>
+        <v>0.00067859713354967</v>
       </c>
       <c r="T9">
-        <v>0.004308430652032735</v>
+        <v>0.0006785971335496699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9925623333333333</v>
+        <v>1.394651</v>
       </c>
       <c r="H10">
-        <v>2.977687</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I10">
-        <v>0.0478190809838148</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J10">
-        <v>0.04781908098381479</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03932533333333333</v>
+        <v>0.5706163333333333</v>
       </c>
       <c r="N10">
-        <v>0.117976</v>
+        <v>1.711849</v>
       </c>
       <c r="O10">
-        <v>0.03588667238536742</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="P10">
-        <v>0.03588667238536743</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="Q10">
-        <v>0.03903284461244444</v>
+        <v>0.7958106398996667</v>
       </c>
       <c r="R10">
-        <v>0.351295601512</v>
+        <v>7.162295759097001</v>
       </c>
       <c r="S10">
-        <v>0.001716067693035515</v>
+        <v>0.02906537454574696</v>
       </c>
       <c r="T10">
-        <v>0.001716067693035515</v>
+        <v>0.02906537454574696</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9925623333333333</v>
+        <v>1.394651</v>
       </c>
       <c r="H11">
-        <v>2.977687</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I11">
-        <v>0.0478190809838148</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J11">
-        <v>0.04781908098381479</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.242411</v>
+        <v>0.08468566666666666</v>
       </c>
       <c r="N11">
-        <v>0.727233</v>
+        <v>0.254057</v>
       </c>
       <c r="O11">
-        <v>0.2212142505155957</v>
+        <v>0.07264630872272121</v>
       </c>
       <c r="P11">
-        <v>0.2212142505155957</v>
+        <v>0.0726463087227212</v>
       </c>
       <c r="Q11">
-        <v>0.2406080277856667</v>
+        <v>0.1181069497023333</v>
       </c>
       <c r="R11">
-        <v>2.165472250071</v>
+        <v>1.062962547321</v>
       </c>
       <c r="S11">
-        <v>0.01057826216017916</v>
+        <v>0.004313617533420784</v>
       </c>
       <c r="T11">
-        <v>0.01057826216017916</v>
+        <v>0.004313617533420783</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H12">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I12">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J12">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.743817</v>
+        <v>0.2546903333333334</v>
       </c>
       <c r="N12">
-        <v>2.231451</v>
+        <v>0.7640710000000001</v>
       </c>
       <c r="O12">
-        <v>0.6787766238980854</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="P12">
-        <v>0.6787766238980855</v>
+        <v>0.2184822215175269</v>
       </c>
       <c r="Q12">
-        <v>0.7382847370929999</v>
+        <v>0.1590924016134445</v>
       </c>
       <c r="R12">
-        <v>6.644562633836999</v>
+        <v>1.431831614521</v>
       </c>
       <c r="S12">
-        <v>0.03245847434810294</v>
+        <v>0.005810528294595495</v>
       </c>
       <c r="T12">
-        <v>0.03245847434810294</v>
+        <v>0.005810528294595495</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1213,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H13">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I13">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J13">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07026666666666666</v>
+        <v>0.242411</v>
       </c>
       <c r="N13">
-        <v>0.2108</v>
+        <v>0.727233</v>
       </c>
       <c r="O13">
-        <v>0.06412245320095149</v>
+        <v>0.2079485825281363</v>
       </c>
       <c r="P13">
-        <v>0.06412245320095149</v>
+        <v>0.2079485825281362</v>
       </c>
       <c r="Q13">
-        <v>0.06974404662222221</v>
+        <v>0.1514221119536667</v>
       </c>
       <c r="R13">
-        <v>0.6276964196</v>
+        <v>1.362799007583</v>
       </c>
       <c r="S13">
-        <v>0.003066276782497174</v>
+        <v>0.005530386473591546</v>
       </c>
       <c r="T13">
-        <v>0.003066276782497173</v>
+        <v>0.005530386473591545</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1272,60 +1275,60 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6246503333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.873951</v>
+      </c>
+      <c r="I14">
+        <v>0.02659497076804196</v>
+      </c>
+      <c r="J14">
+        <v>0.02659497076804196</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.112256</v>
-      </c>
-      <c r="I14">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J14">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M14">
-        <v>0.03932533333333333</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N14">
-        <v>0.117976</v>
+        <v>0.039967</v>
       </c>
       <c r="O14">
-        <v>0.03588667238536742</v>
+        <v>0.01142836064631559</v>
       </c>
       <c r="P14">
-        <v>0.03588667238536743</v>
+        <v>0.01142836064631558</v>
       </c>
       <c r="Q14">
-        <v>0.001471501539555555</v>
+        <v>0.008321799957444444</v>
       </c>
       <c r="R14">
-        <v>0.013243513856</v>
+        <v>0.074896199617</v>
       </c>
       <c r="S14">
-        <v>6.469413841998664E-05</v>
+        <v>0.0003039369173154042</v>
       </c>
       <c r="T14">
-        <v>6.469413841998664E-05</v>
+        <v>0.0003039369173154041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1334,117 +1337,117 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.03741866666666666</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H15">
-        <v>0.112256</v>
+        <v>1.873951</v>
       </c>
       <c r="I15">
-        <v>0.001802734389114475</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J15">
-        <v>0.001802734389114475</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.242411</v>
+        <v>0.5706163333333333</v>
       </c>
       <c r="N15">
-        <v>0.727233</v>
+        <v>1.711849</v>
       </c>
       <c r="O15">
-        <v>0.2212142505155957</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="P15">
-        <v>0.2212142505155957</v>
+        <v>0.4894945265853001</v>
       </c>
       <c r="Q15">
-        <v>0.009070696405333332</v>
+        <v>0.3564356828221111</v>
       </c>
       <c r="R15">
-        <v>0.081636267648</v>
+        <v>3.207921145399</v>
       </c>
       <c r="S15">
-        <v>0.0003987905367666488</v>
+        <v>0.01301809262565259</v>
       </c>
       <c r="T15">
-        <v>0.0003987905367666488</v>
+        <v>0.01301809262565259</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.03741866666666666</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H16">
-        <v>0.112256</v>
+        <v>1.873951</v>
       </c>
       <c r="I16">
-        <v>0.001802734389114475</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J16">
-        <v>0.001802734389114475</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.743817</v>
+        <v>0.08468566666666666</v>
       </c>
       <c r="N16">
-        <v>2.231451</v>
+        <v>0.254057</v>
       </c>
       <c r="O16">
-        <v>0.6787766238980854</v>
+        <v>0.07264630872272121</v>
       </c>
       <c r="P16">
-        <v>0.6787766238980855</v>
+        <v>0.0726463087227212</v>
       </c>
       <c r="Q16">
-        <v>0.02783264038399999</v>
+        <v>0.05289892991188888</v>
       </c>
       <c r="R16">
-        <v>0.250493763456</v>
+        <v>0.4760903692069999</v>
       </c>
       <c r="S16">
-        <v>0.001223653962428101</v>
+        <v>0.001932026456886922</v>
       </c>
       <c r="T16">
-        <v>0.001223653962428101</v>
+        <v>0.001932026456886922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,55 +1461,303 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.229944</v>
+      </c>
+      <c r="H17">
+        <v>0.689832</v>
+      </c>
+      <c r="I17">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="J17">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2546903333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.7640710000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2184822215175269</v>
+      </c>
+      <c r="P17">
+        <v>0.2184822215175269</v>
+      </c>
+      <c r="Q17">
+        <v>0.05856451400800001</v>
+      </c>
+      <c r="R17">
+        <v>0.527080626072</v>
+      </c>
+      <c r="S17">
+        <v>0.002138950460560281</v>
+      </c>
+      <c r="T17">
+        <v>0.002138950460560281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.229944</v>
+      </c>
+      <c r="H18">
+        <v>0.689832</v>
+      </c>
+      <c r="I18">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="J18">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.242411</v>
+      </c>
+      <c r="N18">
+        <v>0.727233</v>
+      </c>
+      <c r="O18">
+        <v>0.2079485825281363</v>
+      </c>
+      <c r="P18">
+        <v>0.2079485825281362</v>
+      </c>
+      <c r="Q18">
+        <v>0.05574095498400001</v>
+      </c>
+      <c r="R18">
+        <v>0.501668594856</v>
+      </c>
+      <c r="S18">
+        <v>0.002035825676258666</v>
+      </c>
+      <c r="T18">
+        <v>0.002035825676258666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.229944</v>
+      </c>
+      <c r="H19">
+        <v>0.689832</v>
+      </c>
+      <c r="I19">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="J19">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G17">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.112256</v>
-      </c>
-      <c r="I17">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J17">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.07026666666666666</v>
-      </c>
-      <c r="N17">
-        <v>0.2108</v>
-      </c>
-      <c r="O17">
-        <v>0.06412245320095149</v>
-      </c>
-      <c r="P17">
-        <v>0.06412245320095149</v>
-      </c>
-      <c r="Q17">
-        <v>0.002629284977777777</v>
-      </c>
-      <c r="R17">
-        <v>0.0236635648</v>
-      </c>
-      <c r="S17">
-        <v>0.0001155957514997388</v>
-      </c>
-      <c r="T17">
-        <v>0.0001155957514997388</v>
+      <c r="M19">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.039967</v>
+      </c>
+      <c r="O19">
+        <v>0.01142836064631559</v>
+      </c>
+      <c r="P19">
+        <v>0.01142836064631558</v>
+      </c>
+      <c r="Q19">
+        <v>0.003063390616</v>
+      </c>
+      <c r="R19">
+        <v>0.027570515544</v>
+      </c>
+      <c r="S19">
+        <v>0.000111884148275766</v>
+      </c>
+      <c r="T19">
+        <v>0.0001118841482757659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.229944</v>
+      </c>
+      <c r="H20">
+        <v>0.689832</v>
+      </c>
+      <c r="I20">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="J20">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.5706163333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.711849</v>
+      </c>
+      <c r="O20">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="P20">
+        <v>0.4894945265853001</v>
+      </c>
+      <c r="Q20">
+        <v>0.131209802152</v>
+      </c>
+      <c r="R20">
+        <v>1.180888219368</v>
+      </c>
+      <c r="S20">
+        <v>0.004792172726042027</v>
+      </c>
+      <c r="T20">
+        <v>0.004792172726042027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.229944</v>
+      </c>
+      <c r="H21">
+        <v>0.689832</v>
+      </c>
+      <c r="I21">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="J21">
+        <v>0.009790043536282392</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.08468566666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.254057</v>
+      </c>
+      <c r="O21">
+        <v>0.07264630872272121</v>
+      </c>
+      <c r="P21">
+        <v>0.0726463087227212</v>
+      </c>
+      <c r="Q21">
+        <v>0.019472960936</v>
+      </c>
+      <c r="R21">
+        <v>0.175256648424</v>
+      </c>
+      <c r="S21">
+        <v>0.0007112105251456519</v>
+      </c>
+      <c r="T21">
+        <v>0.0007112105251456518</v>
       </c>
     </row>
   </sheetData>
